--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3542c794b81406ef/Bureau/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3542c794b81406ef/Documents/GitHub/GL_Adal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F46BC141-4AC9-4A2E-9EB2-DF4DD8C392E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{F46BC141-4AC9-4A2E-9EB2-DF4DD8C392E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8DA283D-7399-41AA-AD62-FAACD7EE6675}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{371671BA-FB2C-466E-9F9E-9FC54DD74A6A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>8.3-Trouver les textures</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,6 +691,9 @@
         <v>16</v>
       </c>
       <c r="C14" s="1"/>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
